--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Slit1-Robo2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Slit1-Robo2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Robo2</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.340305</v>
+        <v>0.08454100000000002</v>
       </c>
       <c r="H2">
-        <v>1.020915</v>
+        <v>0.253623</v>
       </c>
       <c r="I2">
-        <v>0.2413792532744959</v>
+        <v>0.04188307112135965</v>
       </c>
       <c r="J2">
-        <v>0.2522899505114672</v>
+        <v>0.04356611262330446</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.252524333333333</v>
+        <v>0.3615393333333333</v>
       </c>
       <c r="N2">
-        <v>3.757573</v>
+        <v>1.084618</v>
       </c>
       <c r="O2">
-        <v>0.9099863583404593</v>
+        <v>0.7649240942154193</v>
       </c>
       <c r="P2">
-        <v>0.9099863583404593</v>
+        <v>0.7664955283791567</v>
       </c>
       <c r="Q2">
-        <v>0.426240293255</v>
+        <v>0.03056489677933334</v>
       </c>
       <c r="R2">
-        <v>3.836162639295</v>
+        <v>0.275084071014</v>
       </c>
       <c r="S2">
-        <v>0.2196518276661979</v>
+        <v>0.03203737024046602</v>
       </c>
       <c r="T2">
-        <v>0.2295804133118247</v>
+        <v>0.0333932305146256</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.340305</v>
+        <v>0.08454100000000002</v>
       </c>
       <c r="H3">
-        <v>1.020915</v>
+        <v>0.253623</v>
       </c>
       <c r="I3">
-        <v>0.2413792532744959</v>
+        <v>0.04188307112135965</v>
       </c>
       <c r="J3">
-        <v>0.2522899505114672</v>
+        <v>0.04356611262330446</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -626,22 +626,22 @@
         <v>0.324603</v>
       </c>
       <c r="O3">
-        <v>0.0786103960924746</v>
+        <v>0.228925442648571</v>
       </c>
       <c r="P3">
-        <v>0.07861039609247461</v>
+        <v>0.2293957393280025</v>
       </c>
       <c r="Q3">
-        <v>0.036821341305</v>
+        <v>0.009147420741000001</v>
       </c>
       <c r="R3">
-        <v>0.331392071745</v>
+        <v>0.08232678666900001</v>
       </c>
       <c r="S3">
-        <v>0.01897491870841387</v>
+        <v>0.009588100595938839</v>
       </c>
       <c r="T3">
-        <v>0.01983261293985725</v>
+        <v>0.009993880614869948</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>23</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.340305</v>
+        <v>0.08454100000000002</v>
       </c>
       <c r="H4">
-        <v>1.020915</v>
+        <v>0.253623</v>
       </c>
       <c r="I4">
-        <v>0.2413792532744959</v>
+        <v>0.04188307112135965</v>
       </c>
       <c r="J4">
-        <v>0.2522899505114672</v>
+        <v>0.04356611262330446</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M4">
-        <v>0.01569566666666667</v>
+        <v>0.002907</v>
       </c>
       <c r="N4">
-        <v>0.047087</v>
+        <v>0.005814</v>
       </c>
       <c r="O4">
-        <v>0.01140324556706608</v>
+        <v>0.006150463136009796</v>
       </c>
       <c r="P4">
-        <v>0.01140324556706609</v>
+        <v>0.004108732292840814</v>
       </c>
       <c r="Q4">
-        <v>0.005341313845000001</v>
+        <v>0.0002457606870000001</v>
       </c>
       <c r="R4">
-        <v>0.04807182460500001</v>
+        <v>0.001474564122</v>
       </c>
       <c r="S4">
-        <v>0.002752506899884117</v>
+        <v>0.000257600284954799</v>
       </c>
       <c r="T4">
-        <v>0.002876924259785211</v>
+        <v>0.0001790014938089108</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.472982</v>
+        <v>0.340305</v>
       </c>
       <c r="H5">
-        <v>1.418946</v>
+        <v>1.020915</v>
       </c>
       <c r="I5">
-        <v>0.3354874068035369</v>
+        <v>0.1685929728528678</v>
       </c>
       <c r="J5">
-        <v>0.3506519309819567</v>
+        <v>0.1753677618702597</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.252524333333333</v>
+        <v>0.3615393333333333</v>
       </c>
       <c r="N5">
-        <v>3.757573</v>
+        <v>1.084618</v>
       </c>
       <c r="O5">
-        <v>0.9099863583404593</v>
+        <v>0.7649240942154193</v>
       </c>
       <c r="P5">
-        <v>0.9099863583404593</v>
+        <v>0.7664955283791567</v>
       </c>
       <c r="Q5">
-        <v>0.5924214642286667</v>
+        <v>0.12303364283</v>
       </c>
       <c r="R5">
-        <v>5.331793178058</v>
+        <v>1.10730278547</v>
       </c>
       <c r="S5">
-        <v>0.3052889635862348</v>
+        <v>0.1289608270505646</v>
       </c>
       <c r="T5">
-        <v>0.3190884737193208</v>
+        <v>0.1344186052954148</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,13 +773,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.472982</v>
+        <v>0.340305</v>
       </c>
       <c r="H6">
-        <v>1.418946</v>
+        <v>1.020915</v>
       </c>
       <c r="I6">
-        <v>0.3354874068035369</v>
+        <v>0.1685929728528678</v>
       </c>
       <c r="J6">
-        <v>0.3506519309819567</v>
+        <v>0.1753677618702597</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -812,22 +812,22 @@
         <v>0.324603</v>
       </c>
       <c r="O6">
-        <v>0.0786103960924746</v>
+        <v>0.228925442648571</v>
       </c>
       <c r="P6">
-        <v>0.07861039609247461</v>
+        <v>0.2293957393280025</v>
       </c>
       <c r="Q6">
-        <v>0.051177125382</v>
+        <v>0.036821341305</v>
       </c>
       <c r="R6">
-        <v>0.460594128438</v>
+        <v>0.331392071745</v>
       </c>
       <c r="S6">
-        <v>0.02637279793286319</v>
+        <v>0.03859522093778126</v>
       </c>
       <c r="T6">
-        <v>0.02756488718508269</v>
+        <v>0.0402286173885253</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>23</v>
@@ -850,46 +850,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.472982</v>
+        <v>0.340305</v>
       </c>
       <c r="H7">
-        <v>1.418946</v>
+        <v>1.020915</v>
       </c>
       <c r="I7">
-        <v>0.3354874068035369</v>
+        <v>0.1685929728528678</v>
       </c>
       <c r="J7">
-        <v>0.3506519309819567</v>
+        <v>0.1753677618702597</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M7">
-        <v>0.01569566666666667</v>
+        <v>0.002907</v>
       </c>
       <c r="N7">
-        <v>0.047087</v>
+        <v>0.005814</v>
       </c>
       <c r="O7">
-        <v>0.01140324556706608</v>
+        <v>0.006150463136009796</v>
       </c>
       <c r="P7">
-        <v>0.01140324556706609</v>
+        <v>0.004108732292840814</v>
       </c>
       <c r="Q7">
-        <v>0.007423767811333333</v>
+        <v>0.000989266635</v>
       </c>
       <c r="R7">
-        <v>0.06681391030200001</v>
+        <v>0.00593559981</v>
       </c>
       <c r="S7">
-        <v>0.003825645284438928</v>
+        <v>0.001036924864521863</v>
       </c>
       <c r="T7">
-        <v>0.003998570077553161</v>
+        <v>0.0007205391863195537</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,31 +897,31 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.182912</v>
+        <v>0.4435069999999999</v>
       </c>
       <c r="H8">
-        <v>0.365824</v>
+        <v>1.330521</v>
       </c>
       <c r="I8">
-        <v>0.129739974361072</v>
+        <v>0.2197210255830999</v>
       </c>
       <c r="J8">
-        <v>0.09040294133782634</v>
+        <v>0.2285503591301722</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.252524333333333</v>
+        <v>0.3615393333333333</v>
       </c>
       <c r="N8">
-        <v>3.757573</v>
+        <v>1.084618</v>
       </c>
       <c r="O8">
-        <v>0.9099863583404593</v>
+        <v>0.7649240942154193</v>
       </c>
       <c r="P8">
-        <v>0.9099863583404593</v>
+        <v>0.7664955283791567</v>
       </c>
       <c r="Q8">
-        <v>0.2291017308586667</v>
+        <v>0.1603452251086666</v>
       </c>
       <c r="R8">
-        <v>1.374610385152</v>
+        <v>1.443107025978</v>
       </c>
       <c r="S8">
-        <v>0.1180616068000164</v>
+        <v>0.1680699064742356</v>
       </c>
       <c r="T8">
-        <v>0.08226544337127475</v>
+        <v>0.1751828282827273</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,31 +959,31 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.182912</v>
+        <v>0.4435069999999999</v>
       </c>
       <c r="H9">
-        <v>0.365824</v>
+        <v>1.330521</v>
       </c>
       <c r="I9">
-        <v>0.129739974361072</v>
+        <v>0.2197210255830999</v>
       </c>
       <c r="J9">
-        <v>0.09040294133782634</v>
+        <v>0.2285503591301722</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -998,22 +998,22 @@
         <v>0.324603</v>
       </c>
       <c r="O9">
-        <v>0.0786103960924746</v>
+        <v>0.228925442648571</v>
       </c>
       <c r="P9">
-        <v>0.07861039609247461</v>
+        <v>0.2293957393280025</v>
       </c>
       <c r="Q9">
-        <v>0.019791261312</v>
+        <v>0.04798790090699999</v>
       </c>
       <c r="R9">
-        <v>0.118747567872</v>
+        <v>0.4318911081629999</v>
       </c>
       <c r="S9">
-        <v>0.01019891077355137</v>
+        <v>0.05029973304080913</v>
       </c>
       <c r="T9">
-        <v>0.007106611026491275</v>
+        <v>0.05242847860634633</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>23</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.182912</v>
+        <v>0.4435069999999999</v>
       </c>
       <c r="H10">
-        <v>0.365824</v>
+        <v>1.330521</v>
       </c>
       <c r="I10">
-        <v>0.129739974361072</v>
+        <v>0.2197210255830999</v>
       </c>
       <c r="J10">
-        <v>0.09040294133782634</v>
+        <v>0.2285503591301722</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M10">
-        <v>0.01569566666666667</v>
+        <v>0.002907</v>
       </c>
       <c r="N10">
-        <v>0.047087</v>
+        <v>0.005814</v>
       </c>
       <c r="O10">
-        <v>0.01140324556706608</v>
+        <v>0.006150463136009796</v>
       </c>
       <c r="P10">
-        <v>0.01140324556706609</v>
+        <v>0.004108732292840814</v>
       </c>
       <c r="Q10">
-        <v>0.002870925781333334</v>
+        <v>0.001289274849</v>
       </c>
       <c r="R10">
-        <v>0.017225554688</v>
+        <v>0.007735649093999999</v>
       </c>
       <c r="S10">
-        <v>0.001479456787504161</v>
+        <v>0.001351386068055121</v>
       </c>
       <c r="T10">
-        <v>0.001030886940060304</v>
+        <v>0.0009390522410985036</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,31 +1083,31 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.4136363333333333</v>
+        <v>0.2339355</v>
       </c>
       <c r="H11">
-        <v>1.240909</v>
+        <v>0.467871</v>
       </c>
       <c r="I11">
-        <v>0.2933933655608953</v>
+        <v>0.1158956859312148</v>
       </c>
       <c r="J11">
-        <v>0.3066551771687498</v>
+        <v>0.08036858123741962</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.252524333333333</v>
+        <v>0.3615393333333333</v>
       </c>
       <c r="N11">
-        <v>3.757573</v>
+        <v>1.084618</v>
       </c>
       <c r="O11">
-        <v>0.9099863583404593</v>
+        <v>0.7649240942154193</v>
       </c>
       <c r="P11">
-        <v>0.9099863583404593</v>
+        <v>0.7664955283791567</v>
       </c>
       <c r="Q11">
-        <v>0.5180895726507778</v>
+        <v>0.08457688471299998</v>
       </c>
       <c r="R11">
-        <v>4.662806153857</v>
+        <v>0.507461308278</v>
       </c>
       <c r="S11">
-        <v>0.2669839602880102</v>
+        <v>0.08865140258440918</v>
       </c>
       <c r="T11">
-        <v>0.279052027938039</v>
+        <v>0.06160215814065913</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1145,31 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.4136363333333333</v>
+        <v>0.2339355</v>
       </c>
       <c r="H12">
-        <v>1.240909</v>
+        <v>0.467871</v>
       </c>
       <c r="I12">
-        <v>0.2933933655608953</v>
+        <v>0.1158956859312148</v>
       </c>
       <c r="J12">
-        <v>0.3066551771687498</v>
+        <v>0.08036858123741962</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1184,22 +1184,22 @@
         <v>0.324603</v>
       </c>
       <c r="O12">
-        <v>0.0786103960924746</v>
+        <v>0.228925442648571</v>
       </c>
       <c r="P12">
-        <v>0.07861039609247461</v>
+        <v>0.2293957393280025</v>
       </c>
       <c r="Q12">
-        <v>0.04475586490299999</v>
+        <v>0.0253120550355</v>
       </c>
       <c r="R12">
-        <v>0.402802784127</v>
+        <v>0.151872330213</v>
       </c>
       <c r="S12">
-        <v>0.02306376867764617</v>
+        <v>0.0265314712028631</v>
       </c>
       <c r="T12">
-        <v>0.0241062849410434</v>
+        <v>0.0184362101117005</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,247 @@
         <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>23</v>
       </c>
       <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.2339355</v>
+      </c>
+      <c r="H13">
+        <v>0.467871</v>
+      </c>
+      <c r="I13">
+        <v>0.1158956859312148</v>
+      </c>
+      <c r="J13">
+        <v>0.08036858123741962</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.5</v>
+      </c>
+      <c r="M13">
+        <v>0.002907</v>
+      </c>
+      <c r="N13">
+        <v>0.005814</v>
+      </c>
+      <c r="O13">
+        <v>0.006150463136009796</v>
+      </c>
+      <c r="P13">
+        <v>0.004108732292840814</v>
+      </c>
+      <c r="Q13">
+        <v>0.0006800504984999999</v>
+      </c>
+      <c r="R13">
+        <v>0.002720201994</v>
+      </c>
+      <c r="S13">
+        <v>0.0007128121439425055</v>
+      </c>
+      <c r="T13">
+        <v>0.0003302129850599863</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
         <v>3</v>
       </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.4136363333333333</v>
-      </c>
-      <c r="H13">
-        <v>1.240909</v>
-      </c>
-      <c r="I13">
-        <v>0.2933933655608953</v>
-      </c>
-      <c r="J13">
-        <v>0.3066551771687498</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M13">
-        <v>0.01569566666666667</v>
-      </c>
-      <c r="N13">
-        <v>0.047087</v>
-      </c>
-      <c r="O13">
-        <v>0.01140324556706608</v>
-      </c>
-      <c r="P13">
-        <v>0.01140324556706609</v>
-      </c>
-      <c r="Q13">
-        <v>0.006492298009222222</v>
-      </c>
-      <c r="R13">
-        <v>0.05843068208300001</v>
-      </c>
-      <c r="S13">
-        <v>0.003345636595238878</v>
-      </c>
-      <c r="T13">
-        <v>0.003496864289667412</v>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.9162119999999999</v>
+      </c>
+      <c r="H14">
+        <v>2.748636</v>
+      </c>
+      <c r="I14">
+        <v>0.4539072445114579</v>
+      </c>
+      <c r="J14">
+        <v>0.4721471851388441</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.3615393333333333</v>
+      </c>
+      <c r="N14">
+        <v>1.084618</v>
+      </c>
+      <c r="O14">
+        <v>0.7649240942154193</v>
+      </c>
+      <c r="P14">
+        <v>0.7664955283791567</v>
+      </c>
+      <c r="Q14">
+        <v>0.3312466756719999</v>
+      </c>
+      <c r="R14">
+        <v>2.981220081047999</v>
+      </c>
+      <c r="S14">
+        <v>0.3472045878657438</v>
+      </c>
+      <c r="T14">
+        <v>0.3618987061457298</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.9162119999999999</v>
+      </c>
+      <c r="H15">
+        <v>2.748636</v>
+      </c>
+      <c r="I15">
+        <v>0.4539072445114579</v>
+      </c>
+      <c r="J15">
+        <v>0.4721471851388441</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.108201</v>
+      </c>
+      <c r="N15">
+        <v>0.324603</v>
+      </c>
+      <c r="O15">
+        <v>0.228925442648571</v>
+      </c>
+      <c r="P15">
+        <v>0.2293957393280025</v>
+      </c>
+      <c r="Q15">
+        <v>0.09913505461199998</v>
+      </c>
+      <c r="R15">
+        <v>0.8922154915079998</v>
+      </c>
+      <c r="S15">
+        <v>0.1039109168711786</v>
+      </c>
+      <c r="T15">
+        <v>0.1083085526065604</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.9162119999999999</v>
+      </c>
+      <c r="H16">
+        <v>2.748636</v>
+      </c>
+      <c r="I16">
+        <v>0.4539072445114579</v>
+      </c>
+      <c r="J16">
+        <v>0.4721471851388441</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.5</v>
+      </c>
+      <c r="M16">
+        <v>0.002907</v>
+      </c>
+      <c r="N16">
+        <v>0.005814</v>
+      </c>
+      <c r="O16">
+        <v>0.006150463136009796</v>
+      </c>
+      <c r="P16">
+        <v>0.004108732292840814</v>
+      </c>
+      <c r="Q16">
+        <v>0.002663428284</v>
+      </c>
+      <c r="R16">
+        <v>0.015980569704</v>
+      </c>
+      <c r="S16">
+        <v>0.002791739774535506</v>
+      </c>
+      <c r="T16">
+        <v>0.001939926386553859</v>
       </c>
     </row>
   </sheetData>
